--- a/mySystem/mySystem/xls/库存/SOP-WH-003-R04A 材料退库单.xlsx
+++ b/mySystem/mySystem/xls/库存/SOP-WH-003-R04A 材料退库单.xlsx
@@ -28,18 +28,6 @@
       <t>颇尔美奥星包装科技（北京）有限责任公司</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品代码：</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -150,6 +138,10 @@
   </si>
   <si>
     <t>退库数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代码：</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,6 +366,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,7 +678,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I3" sqref="I3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -712,12 +707,12 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -731,20 +726,20 @@
       <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>1</v>
+      <c r="A3" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
       <c r="F3" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="20"/>
       <c r="I3" s="18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="19"/>
       <c r="K3" s="20"/>
@@ -753,37 +748,37 @@
     </row>
     <row r="4" spans="1:13" s="8" customFormat="1" ht="45" customHeight="1">
       <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="M4" s="9"/>
     </row>
@@ -797,10 +792,10 @@
       <c r="E5" s="13"/>
       <c r="F5" s="11"/>
       <c r="G5" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="12"/>
@@ -815,7 +810,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="14"/>
       <c r="H6" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="12"/>
@@ -830,7 +825,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="14"/>
       <c r="H7" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="12"/>
@@ -845,7 +840,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="14"/>
       <c r="H8" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="12"/>
@@ -860,7 +855,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="14"/>
       <c r="H9" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="12"/>
@@ -875,7 +870,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="14"/>
       <c r="H10" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="12"/>
@@ -890,7 +885,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="14"/>
       <c r="H11" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="12"/>
@@ -905,7 +900,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="14"/>
       <c r="H12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="12"/>
@@ -920,7 +915,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="14"/>
       <c r="H13" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="12"/>
